--- a/data_year/zb/科技/规模以上工业企业组织(管理)和营销创新情况/实现营销创新活动的企业占规模以上工业企业的比重/按登记注册类型分实现营销创新活动的规模以上工业企业占规模以上工业企业的比重.xlsx
+++ b/data_year/zb/科技/规模以上工业企业组织(管理)和营销创新情况/实现营销创新活动的企业占规模以上工业企业的比重/按登记注册类型分实现营销创新活动的规模以上工业企业占规模以上工业企业的比重.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,49 @@
         <v>15.115</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22.642</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30.736</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.426</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18.722</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24.643</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28.777</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26.881</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30.822</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.556</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21.971</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48.98</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
